--- a/Web development/Articles.xlsx
+++ b/Web development/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\Web development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72216799-2E2C-4E5F-A6D8-A9BBD650A08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CADA29-A11A-47FB-AB9A-A626E176EB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +55,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,9 +91,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -365,7 +379,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -374,16 +388,17 @@
     <col min="2" max="2" width="105" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -392,5 +407,6 @@
     <hyperlink ref="B2" r:id="rId1" display="https://mui.com/material-ui/customization/how-to-customize/" xr:uid="{E6476179-E7FB-4F3E-95D9-07BAF331078F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>